--- a/pred_ohlcv/54_21/2020-01-23 DASH ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-23 DASH ohlcv.xlsx
@@ -1016,7 +1016,7 @@
         <v>-398.4797617200001</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-398.4797617200001</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-393.4797617200001</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-395.27266172</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-395.27266172</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-388.27266172</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-386.27266172</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-382.94646172</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-346.31186172</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-318.30656172</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-336.1916617200001</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-335.72166172</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-338.33146172</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-335.83306172</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-335.83306172</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-369.93076172</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-370.9387617199999</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-382.3776617199999</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-384.3018617199999</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-423.6899617199999</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-423.6899617199999</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-425.5450617199999</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-425.5007634799999</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-425.5007634799999</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-438.8236634799999</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-325.3513634799999</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-335.9501634799999</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-335.9501634799999</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-341.9431634799999</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-347.9431634799999</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-346.9418634799999</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-346.9418634799999</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-349.6008634799999</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-340.9648634799998</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-341.8352634799999</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-341.8352634799999</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-341.5677634799999</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-341.5677634799999</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-341.5677634799999</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-341.5677634799999</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-339.5677634799999</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-339.5677634799999</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-339.5677634799999</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-339.5680634799999</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-343.2770634799999</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-344.3280634799999</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-347.2190634799999</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-289.7950634799998</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-289.7950634799998</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-289.1464634799999</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-289.3943634799999</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-289.6437634799998</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-289.6437634799998</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-308.4738087899999</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-333.0980499099999</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-332.5880499099999</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-314.1377499099999</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-314.1377499099999</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-338.1390499099999</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-338.1390499099999</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-338.1065102299999</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-307.0583499099999</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-306.4283499099999</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-306.4283499099999</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-306.3933577899999</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-213.2386577899999</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-220.2386577899999</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-274.6311577899999</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-260.1311577899999</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-255.3036956899999</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-257.3036956899999</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-269.1146956899998</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-280.1146956899998</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-280.0789421599998</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-285.2908835399998</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-23 DASH ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-23 DASH ohlcv.xlsx
@@ -1016,7 +1016,7 @@
         <v>-398.4797617200001</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-398.4797617200001</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-393.4797617200001</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-395.27266172</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-395.27266172</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-388.27266172</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-386.27266172</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-382.94646172</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-346.31186172</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-318.30656172</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-336.1916617200001</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-335.72166172</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-351.95646172</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-358.95646172</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-338.33146172</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-335.83306172</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-335.83306172</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-335.83306172</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-335.83306172</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-335.99666172</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-335.99666172</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-337.01566172</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-335.97426172</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-335.97426172</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-333.77296172</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-368.93076172</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-369.93076172</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-370.9387617199999</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-374.1487617199999</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-382.3776617199999</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-384.3018617199999</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-423.6899617199999</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-423.6899617199999</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-425.5450617199999</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-425.5007634799999</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-425.5007634799999</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-438.8236634799999</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-325.3513634799999</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-327.2095634799999</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-335.9501634799999</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-335.9501634799999</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-346.9418634799999</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-346.9418634799999</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-340.9648634799998</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-341.8352634799999</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-341.8352634799999</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-341.5677634799999</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-341.5677634799999</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-341.5677634799999</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-341.5677634799999</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-339.5677634799999</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-339.5677634799999</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-339.5677634799999</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-339.5680634799999</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-343.2770634799999</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-344.3280634799999</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-347.2190634799999</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-289.7950634799998</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-289.7950634799998</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-289.1464634799999</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-332.6786087899999</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-300.2048087899999</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-311.3011087899999</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-311.3011087899999</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-311.3011087899999</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-309.4962087899999</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-314.1377499099999</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-314.1377499099999</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-338.1390499099999</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-338.1390499099999</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-338.1065102299999</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-307.0583499099999</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-216.3953577899999</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-216.3953577899999</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-213.2386577899999</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-220.2386577899999</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-274.6311577899999</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-260.1311577899999</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-255.3036956899999</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-257.3036956899999</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-269.1146956899998</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-280.1146956899998</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
